--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3125.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3125.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fidel Henderson Edwards</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/11/2003</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2158</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/11/2003</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2160</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2222</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>16/05/2004</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2223</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2342</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>15/05/2005</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2343</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2431</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2434</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>25/02/2006</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2436</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/03/2006</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2441</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/03/2006</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2445</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>29/04/2006</t>
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2469</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2470</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1136,7 +1193,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>07/05/2006</t>
@@ -1144,7 +1200,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2472</t>
+          <t>2472</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1184,7 +1240,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>14/05/2006</t>
@@ -1192,7 +1247,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2475</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1232,7 +1287,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>18/05/2006</t>
@@ -1240,7 +1294,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2476</t>
+          <t>2476</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1346,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2477</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1332,7 +1386,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>23/05/2006</t>
@@ -1340,7 +1393,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2478</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1380,7 +1433,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>26/05/2006</t>
@@ -1388,7 +1440,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2483</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1440,7 +1492,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2516</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1480,7 +1532,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>14/09/2006</t>
@@ -1488,7 +1539,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2517</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1591,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2532</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1580,7 +1631,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>28/10/2006</t>
@@ -1588,7 +1638,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2543</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1640,7 +1690,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1680,7 +1730,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>04/07/2007</t>
@@ -1688,7 +1737,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1728,7 +1777,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>07/07/2007</t>
@@ -1736,7 +1784,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1776,7 +1824,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>10/07/2007</t>
@@ -1784,7 +1831,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2710</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1824,7 +1871,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>12/07/2007</t>
@@ -1832,7 +1878,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2712</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1872,7 +1918,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>14/07/2007</t>
@@ -1880,7 +1925,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2714</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1932,7 +1977,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2773</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1984,7 +2029,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2776</t>
+          <t>2776</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2024,7 +2069,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>27/01/2008</t>
@@ -2032,7 +2076,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2778</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2084,7 +2128,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2780</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2136,7 +2180,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2809</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2176,7 +2220,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>12/04/2008</t>
@@ -2184,7 +2227,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2811</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2236,7 +2279,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2825</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2288,7 +2331,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2836</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2328,7 +2371,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>04/07/2008</t>
@@ -2336,7 +2378,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2846</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2388,7 +2430,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2848</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2428,7 +2470,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>31/12/2008</t>
@@ -2436,7 +2477,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2908</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2476,7 +2517,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>03/01/2009</t>
@@ -2484,7 +2524,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2536,7 +2576,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2910</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2576,7 +2616,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>10/01/2009</t>
@@ -2584,7 +2623,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2911</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2636,7 +2675,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2676,7 +2715,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>20/03/2009</t>
@@ -2684,7 +2722,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2736,7 +2774,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2776,7 +2814,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>27/03/2009</t>
@@ -2784,7 +2821,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2836,7 +2873,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2888,7 +2925,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2940,7 +2977,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2979,7 +3016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3001,7 +3038,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3038,7 +3075,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2158</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3075,7 +3112,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2160</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3112,7 +3149,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2222</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3149,7 +3186,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2223</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3186,7 +3223,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2342</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3223,7 +3260,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2343</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3260,7 +3297,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2431</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3297,7 +3334,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2434</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3334,7 +3371,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2436</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3371,7 +3408,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2441</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3408,7 +3445,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2445</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3445,7 +3482,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2469</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3482,7 +3519,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2470</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3519,7 +3556,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2472</t>
+          <t>2472</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3556,7 +3593,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2475</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3593,7 +3630,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2476</t>
+          <t>2476</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3630,7 +3667,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2477</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3667,7 +3704,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2478</t>
+          <t>2478</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3704,7 +3741,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2483</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3741,7 +3778,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2516</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3778,7 +3815,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2517</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3815,7 +3852,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2532</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3852,7 +3889,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2543</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3889,7 +3926,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3926,7 +3963,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3963,7 +4000,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4000,7 +4037,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2710</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4037,7 +4074,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2712</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4074,7 +4111,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2714</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4111,7 +4148,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2773</t>
+          <t>2773</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4148,7 +4185,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2776</t>
+          <t>2776</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4185,7 +4222,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2778</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4222,7 +4259,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2780</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4259,7 +4296,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2809</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4296,7 +4333,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2811</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4333,7 +4370,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2825</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4370,7 +4407,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2836</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4407,7 +4444,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2846</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4444,7 +4481,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2848</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4481,7 +4518,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4518,7 +4555,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2910</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4555,7 +4592,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2911</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4592,7 +4629,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4629,7 +4666,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4666,7 +4703,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4703,7 +4740,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4740,7 +4777,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4777,7 +4814,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4814,7 +4851,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4842,6 +4879,447 @@
           <t>0/43</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2776</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.73%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2778</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2780</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2809</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2825</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.14%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2836</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2848</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2908</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2909</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10.16%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2910</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2911</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2948</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2949</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2951</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2955</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2974</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3125.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3125.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4970,9 +4971,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5018,9 +5016,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5033,10 +5028,6 @@
           <t>2811</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5079,63 +5070,369 @@
           <t>2836</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2848</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2908</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2909</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10.16%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2910</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2911</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2948</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2949</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2951</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2955</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2974</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2773</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2776</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2778</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2780</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2809</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2825</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2846</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>2836</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2848</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2908</t>
+          <t>2848</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5143,29 +5440,8 @@
           <t>2909</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10.16%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5173,15 +5449,12 @@
           <t>2910</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5189,29 +5462,8 @@
           <t>2911</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5219,17 +5471,12 @@
           <t>2914</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>10</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5237,15 +5484,12 @@
           <t>2948</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5253,25 +5497,8 @@
           <t>2949</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5281,9 +5508,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5291,11 +5515,12 @@
           <t>2951</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5305,9 +5530,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5315,11 +5537,12 @@
           <t>2974</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3125.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3125.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/11/2003</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/11/2003</t>
@@ -704,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>16/05/2004</t>
@@ -803,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>15/05/2005</t>
@@ -954,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>25/02/2006</t>
@@ -1001,6 +1004,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>01/03/2006</t>
@@ -1048,6 +1052,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/03/2006</t>
@@ -1095,6 +1100,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>29/04/2006</t>
@@ -1194,6 +1200,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>07/05/2006</t>
@@ -1241,6 +1248,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>14/05/2006</t>
@@ -1288,6 +1296,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>18/05/2006</t>
@@ -1387,6 +1396,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>23/05/2006</t>
@@ -1434,6 +1444,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>26/05/2006</t>
@@ -1533,6 +1544,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>14/09/2006</t>
@@ -1632,6 +1644,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>28/10/2006</t>
@@ -1731,6 +1744,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>04/07/2007</t>
@@ -1778,6 +1792,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>07/07/2007</t>
@@ -1825,6 +1840,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>10/07/2007</t>
@@ -1872,6 +1888,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>12/07/2007</t>
@@ -1919,6 +1936,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>14/07/2007</t>
@@ -1931,7 +1949,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2070,6 +2088,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>27/01/2008</t>
@@ -2221,6 +2240,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>12/04/2008</t>
@@ -2372,6 +2392,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>04/07/2008</t>
@@ -2471,6 +2492,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>31/12/2008</t>
@@ -2518,6 +2540,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>03/01/2009</t>
@@ -2617,6 +2640,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>10/01/2009</t>
@@ -2716,6 +2740,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>20/03/2009</t>
@@ -2815,6 +2840,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>27/03/2009</t>
@@ -4884,667 +4910,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.73%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2778</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2780</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.56%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2809</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2811</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2825</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.14%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2836</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2846</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2848</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2908</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2909</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10.16%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2910</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2911</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2914</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2948</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2949</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2950</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2951</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2955</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2974</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2773</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2776</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2778</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2780</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2809</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2811</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2825</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2836</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2846</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2848</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2909</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2910</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2911</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2914</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2948</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2949</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2950</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2951</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2955</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2974</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>